--- a/graph_generation/results_prelim/hermes_llama2/level_10/k_3.xlsx
+++ b/graph_generation/results_prelim/hermes_llama2/level_10/k_3.xlsx
@@ -31,7 +31,7 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -86,35 +86,29 @@
 Solution: Path from A to K: A -&gt; B -&gt; E -&gt; G -&gt; K
 Path from K to S: K -&gt; G -&gt; E -&gt; B -&gt; A -&gt; S
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node 0 to node H, and then from node node H to node 15? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 3
- E 0 0 0 1 0 2 0 0 0 0 5 0 5 0 0 0
- F 0 0 0 0 2 0 2 0 0 0 0 0 0 5 0 0
- G 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 4 2 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- K 0 0 0 0 5 0 0 0 0 0 0 2 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0 0
- M 0 0 0 0 5 0 0 0 0 0 0 4 0 0 0 0
- N 0 0 0 0 0 5 0 0 0 0 0 0 0 0 3 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 3
- P 0 0 0 3 0 0 0 0 0 0 0 0 0 0 3 0
+What is the least cost path to travel first from node A to node H, and then from node node H to node M? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M
+ A 0 1 2 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0
+ C 2 0 0 1 0 0 0 0 3 0 2 0 3
+ D 0 0 1 0 5 0 0 5 0 0 0 0 0
+ E 0 0 0 5 0 2 0 0 0 0 0 0 0
+ F 0 0 0 0 2 0 4 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 0 0 0 0 0 0
+ H 0 0 0 5 0 0 0 0 0 0 0 0 0
+ I 0 0 3 0 0 0 0 0 0 3 0 0 0
+ J 0 0 0 0 0 0 0 0 3 0 0 0 0
+ K 0 0 2 0 0 0 0 0 0 0 0 5 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 4
+ M 0 0 3 0 0 0 0 0 0 0 0 4 0
     </t>
   </si>
   <si>
-    <t>Path from A to H: A -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H
-Path from H to P: H -&gt; G -&gt; F -&gt; E -&gt; D -&gt; P</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node 0 to node 15, we can use Dijkstra's algorithm. Here's the solution:
-Path from 0 to H: 0 -&gt; D -&gt; E -&gt; G -&gt; H
-Path from H to 15: H -&gt; G -&gt; E -&gt; D -&gt; A -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y -&gt; Z -&gt; 15
-Note that the nodes from 1 to 14 are not present in the given adjacency matrix, so we have used letters from O to Z to represent them.</t>
+    <t>Path from A to H: A -&gt; C -&gt; D -&gt; H
+Path from H to M: H -&gt; D -&gt; C -&gt; M</t>
+  </si>
+  <si>
+    <t>The least cost path to travel from node A to node H is A -&gt; G -&gt; H. The least cost path to travel from node H to node M is H -&gt; G -&gt; E -&gt; B -&gt; A -&gt; M. Therefore, the overall least cost path is A -&gt; G -&gt; H -&gt; G -&gt; E -&gt; B -&gt; A -&gt; M.</t>
   </si>
   <si>
     <t>Wrong</t>
